--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1946989.425574457</v>
+        <v>1942685.085764588</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>259.6326967715747</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015057</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.279185505326</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015057</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015057</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>88.61349769472196</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>134.5404641870286</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.0985887639551</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888212</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>160.1623451421132</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>19.98946990210323</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>188.8809805393944</v>
+        <v>175.5844527629984</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>101.014171107688</v>
+        <v>232.0477154881478</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232.2698341871923</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203003</v>
+        <v>118.1508783889418</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348404</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614502</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611522</v>
+        <v>20.24979976115247</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901737</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406876</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099133</v>
+        <v>224.0328052098953</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>19.86228231687128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>21.69344301367131</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>178.2798710842936</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>113.954991851706</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>72.26558381699965</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>112.1188594237458</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>162.4016674345626</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>38.19083539427148</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2529,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>70.58974991479215</v>
       </c>
       <c r="U25" t="n">
-        <v>91.87132188694</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>182.1004663077425</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>43.3482415786093</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>60.64713141731568</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717412</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U34" t="n">
-        <v>140.7944235414525</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>28.75188085812005</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3474,19 +3474,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238239</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>174.7683347992642</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.949385892745</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4.665762779850401</v>
+        <v>145.7322552292192</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006023</v>
+        <v>419.733006062639</v>
       </c>
       <c r="C2" t="n">
-        <v>1054.855520006023</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="D2" t="n">
-        <v>788.4778634388452</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E2" t="n">
-        <v>788.4778634388452</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F2" t="n">
-        <v>553.8524235344755</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>287.474766967298</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012046</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052538</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515901</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030598</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991309</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358404</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601761</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006023</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006023</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006023</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006023</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006023</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006023</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006023</v>
+        <v>686.1106626298169</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.9467308776107</v>
+        <v>750.7407242111802</v>
       </c>
       <c r="C3" t="n">
-        <v>165.9467308776107</v>
+        <v>576.2876949300532</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776107</v>
+        <v>427.3532852688019</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>268.1158302633464</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749986</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004789</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.129583569933</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302296</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267532</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293582</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560879</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789491</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098624</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098624</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>816.7106380798402</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>581.5585298480975</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>581.5585298480975</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X3" t="n">
-        <v>373.7070296425646</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.9467308776107</v>
+        <v>918.9560612312482</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>927.4832081232398</v>
+        <v>638.3908851919425</v>
       </c>
       <c r="C4" t="n">
-        <v>758.5470251953329</v>
+        <v>638.3908851919425</v>
       </c>
       <c r="D4" t="n">
-        <v>608.4303857829972</v>
+        <v>638.3908851919425</v>
       </c>
       <c r="E4" t="n">
-        <v>460.5172922006041</v>
+        <v>490.4777916095494</v>
       </c>
       <c r="F4" t="n">
-        <v>313.6273447026937</v>
+        <v>343.5878441116391</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361717</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726550993</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375319</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227028</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075523</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816801</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006023</v>
+        <v>893.0753733978294</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006023</v>
+        <v>638.3908851919425</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006023</v>
+        <v>638.3908851919425</v>
       </c>
       <c r="X4" t="n">
-        <v>1054.855520006023</v>
+        <v>638.3908851919425</v>
       </c>
       <c r="Y4" t="n">
-        <v>1054.855520006023</v>
+        <v>638.3908851919425</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>840.4214638411526</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="C5" t="n">
-        <v>840.4214638411526</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>840.4214638411526</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>574.0438072739746</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>307.6661507067967</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>41.28849413961871</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>41.28849413961871</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>489.334169819989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>314.881140538862</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,19 +4649,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4673,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>697.0944685849429</v>
+        <v>859.1616031188769</v>
       </c>
       <c r="W6" t="n">
-        <v>697.0944685849429</v>
+        <v>604.9242463906753</v>
       </c>
       <c r="X6" t="n">
-        <v>697.0944685849429</v>
+        <v>397.0727461851425</v>
       </c>
       <c r="Y6" t="n">
-        <v>489.334169819989</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.7059716361716</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375337</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>671.3785036348206</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>569.3439873644287</v>
+        <v>820.4638881998146</v>
       </c>
       <c r="X7" t="n">
-        <v>341.3544364664114</v>
+        <v>592.4743373017973</v>
       </c>
       <c r="Y7" t="n">
-        <v>341.3544364664114</v>
+        <v>371.6817581582671</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1992.461937729943</v>
+        <v>1751.998473148444</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.461937729943</v>
+        <v>1383.035956208032</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.196239123193</v>
+        <v>1383.035956208032</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.407986524948</v>
+        <v>997.2477036097875</v>
       </c>
       <c r="F8" t="n">
-        <v>837.4220817353406</v>
+        <v>586.26179882018</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270078</v>
+        <v>170.5555768118472</v>
       </c>
       <c r="H8" t="n">
-        <v>117.641643342866</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685587</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="J8" t="n">
-        <v>187.370225146718</v>
+        <v>187.3702251467164</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607442</v>
+        <v>442.1757437607407</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045958</v>
+        <v>795.1862829045904</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995231</v>
+        <v>1219.647962995223</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520959</v>
+        <v>1655.591685209579</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940604</v>
+        <v>2053.90571894059</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550207</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661174</v>
+        <v>2540.564622661157</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342794</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762147</v>
+        <v>2435.830015762128</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.07793185842</v>
+        <v>2435.830015762128</v>
       </c>
       <c r="U8" t="n">
-        <v>2227.07793185842</v>
+        <v>2435.830015762128</v>
       </c>
       <c r="V8" t="n">
-        <v>2227.07793185842</v>
+        <v>2104.767128418558</v>
       </c>
       <c r="W8" t="n">
-        <v>2227.07793185842</v>
+        <v>1751.998473148444</v>
       </c>
       <c r="X8" t="n">
-        <v>2227.07793185842</v>
+        <v>1751.998473148444</v>
       </c>
       <c r="Y8" t="n">
-        <v>2227.07793185842</v>
+        <v>1751.998473148444</v>
       </c>
     </row>
     <row r="9">
@@ -4877,43 +4877,43 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993892</v>
+        <v>71.66559839993882</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685587</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507241</v>
+        <v>113.4887579637183</v>
       </c>
       <c r="K9" t="n">
-        <v>684.7364639442769</v>
+        <v>298.085754314817</v>
       </c>
       <c r="L9" t="n">
-        <v>979.2724473777594</v>
+        <v>800.9941814716119</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.338915852062</v>
+        <v>1164.060649945912</v>
       </c>
       <c r="N9" t="n">
-        <v>1729.423318324632</v>
+        <v>1551.145052418481</v>
       </c>
       <c r="O9" t="n">
-        <v>2061.310128312023</v>
+        <v>1883.031862405869</v>
       </c>
       <c r="P9" t="n">
-        <v>2308.345486741648</v>
+        <v>2445.345361789031</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442636</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342794</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251709</v>
+        <v>2424.826280251691</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685358</v>
+        <v>2230.81647768534</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>390.3269889782816</v>
+        <v>368.0605317171555</v>
       </c>
       <c r="C10" t="n">
-        <v>221.3908060503747</v>
+        <v>199.1243487892486</v>
       </c>
       <c r="D10" t="n">
-        <v>71.27416663803899</v>
+        <v>199.1243487892486</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685587</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685587</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685587</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685587</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685587</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380197</v>
+        <v>76.63468308380114</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676577</v>
+        <v>248.2500215676561</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368935</v>
+        <v>523.3850043368909</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904057</v>
+        <v>823.865389990402</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101615</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931094</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616504</v>
+        <v>1581.490387616497</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412624</v>
+        <v>1533.156055412617</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.156055412624</v>
+        <v>1336.515802634451</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.17475388703</v>
+        <v>1314.603233933773</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.17475388703</v>
+        <v>1314.603233933773</v>
       </c>
       <c r="V10" t="n">
-        <v>1310.17475388703</v>
+        <v>1059.918745727886</v>
       </c>
       <c r="W10" t="n">
-        <v>1020.757583850069</v>
+        <v>770.5015756909254</v>
       </c>
       <c r="X10" t="n">
-        <v>792.7680329520515</v>
+        <v>770.5015756909254</v>
       </c>
       <c r="Y10" t="n">
-        <v>571.9754538085214</v>
+        <v>549.7089965473953</v>
       </c>
     </row>
     <row r="11">
@@ -5035,43 +5035,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096659</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5193,55 +5193,55 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V13" t="n">
-        <v>1508.305175991783</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W13" t="n">
-        <v>1508.305175991783</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
         <v>1280.315625093766</v>
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5275,16 +5275,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1031.03282245656</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>989.3306680894883</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>820.3944851615814</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>670.2778457492457</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>1170.979132919728</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U25" t="n">
-        <v>2104.263230450254</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V25" t="n">
-        <v>1849.578742244367</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W25" t="n">
-        <v>1560.161572207407</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X25" t="n">
-        <v>1332.172021309389</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.521215553193</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1538.836727347306</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1249.419557310345</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1021.430006412328</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>800.6374272687975</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459582</v>
+        <v>763.7541388327688</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180513</v>
+        <v>594.8179559048619</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925262</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>296.7882229101331</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>296.7882229101331</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603206</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947404</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1683.601903741517</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1394.184733704556</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>1166.195182806539</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>945.4026036630086</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6697,31 +6697,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6739,13 +6739,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511905</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232836</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1902.290194822295</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.605706616408</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.188536579448</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.19898568143</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6931,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6940,16 +6940,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,10 +6973,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1905.631426649722</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7174,22 +7174,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,25 +7256,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>784.5811134804959</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3260.450525729772</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C43" t="n">
-        <v>3091.514342801865</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D43" t="n">
-        <v>2941.39770338953</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>2793.484609807137</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>4503.265426356679</v>
+        <v>2232.71308162133</v>
       </c>
       <c r="U43" t="n">
-        <v>4214.190199700877</v>
+        <v>1943.637854965528</v>
       </c>
       <c r="V43" t="n">
-        <v>3959.50571149499</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="W43" t="n">
-        <v>3670.08854145803</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X43" t="n">
-        <v>3442.098990560012</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y43" t="n">
-        <v>3442.098990560012</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961068948</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.474701541553</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775129</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8297,22 +8297,22 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>97.32166909127238</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>210.4772158821356</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.8482254012549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348528</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>73.85777223953443</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>111.7546635373311</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>213.9188905722445</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>113.5907959652914</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.845153664065265</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>146.8157004124961</v>
       </c>
       <c r="U25" t="n">
-        <v>194.3131525023041</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>104.0840080815017</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>105.2672314396031</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>104.8770068749532</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U34" t="n">
-        <v>145.3900508477916</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>111.7546635373268</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.88259428919233</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>212.7396875474379</v>
+        <v>71.67319509806902</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>878198.4519523361</v>
+        <v>878198.4519523362</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>883758.6402604653</v>
+        <v>883758.6402604652</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.9210447283</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.9210447284</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.9210447284</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.9210447283</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049985</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049988</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911926</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>3.539624622135307e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580818</v>
+        <v>390680.0076580772</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606904</v>
+        <v>507909.2320606952</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911395</v>
+        <v>68999.15441911384</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.93688015511286e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101833</v>
+        <v>95270.23779101712</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954684</v>
+        <v>132717.9756954696</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252122.0652631776</v>
+        <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447203</v>
+        <v>141668.8507447215</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26444,13 +26444,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="L4" t="n">
+        <v>11776.97621680586</v>
+      </c>
+      <c r="M4" t="n">
         <v>11776.97621680588</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426617</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567918</v>
+        <v>92902.86757567881</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-420528.6101536379</v>
       </c>
       <c r="C6" t="n">
-        <v>259559.3704375547</v>
+        <v>259559.3704375548</v>
       </c>
       <c r="D6" t="n">
-        <v>-50522.48707348286</v>
+        <v>-50522.48707347889</v>
       </c>
       <c r="E6" t="n">
-        <v>-55806.11831839893</v>
+        <v>-56153.49757276078</v>
       </c>
       <c r="F6" t="n">
-        <v>452103.1137422915</v>
+        <v>451755.7344879343</v>
       </c>
       <c r="G6" t="n">
-        <v>452103.1137422913</v>
+        <v>451755.7344879347</v>
       </c>
       <c r="H6" t="n">
-        <v>452103.1137422914</v>
+        <v>451755.7344879347</v>
       </c>
       <c r="I6" t="n">
-        <v>452103.1137422915</v>
+        <v>451755.7344879344</v>
       </c>
       <c r="J6" t="n">
-        <v>383103.9593231775</v>
+        <v>382756.5800688206</v>
       </c>
       <c r="K6" t="n">
-        <v>452103.1137422913</v>
+        <v>451755.7344879346</v>
       </c>
       <c r="L6" t="n">
-        <v>356832.8759512731</v>
+        <v>356485.4966969175</v>
       </c>
       <c r="M6" t="n">
-        <v>319385.1380468231</v>
+        <v>319037.7587924652</v>
       </c>
       <c r="N6" t="n">
-        <v>452103.1137422915</v>
+        <v>451755.7344879343</v>
       </c>
       <c r="O6" t="n">
-        <v>452103.1137422916</v>
+        <v>451755.7344879344</v>
       </c>
       <c r="P6" t="n">
-        <v>452103.1137422915</v>
+        <v>451755.7344879344</v>
       </c>
     </row>
   </sheetData>
@@ -26712,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627852</v>
+        <v>933.7024595627814</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015057</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856985</v>
+        <v>640.1406900856939</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,34 +26959,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>319.6474457933032</v>
+      </c>
+      <c r="E3" t="n">
+        <v>434.2730407788926</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>319.6474457933069</v>
-      </c>
-      <c r="E3" t="n">
-        <v>434.2730407788886</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015057</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841924</v>
+        <v>376.4268100841878</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139495</v>
+        <v>532.5675980139547</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015057</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841924</v>
+        <v>376.4268100841876</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139499</v>
+        <v>532.5675980139547</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015057</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841924</v>
+        <v>376.4268100841878</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139495</v>
+        <v>532.5675980139547</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>105.6401949994328</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917727</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>174.5968602363854</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442043</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776231</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527771</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>137.2409898088327</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>71.14223159027577</v>
       </c>
     </row>
     <row r="4">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.7333914179822</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,10 +27593,10 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>126.0962853605643</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>170.1648765455755</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>95.31714964479389</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>43.91960661003091</v>
+        <v>57.21613438642683</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27833,16 +27833,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>185.508827228903</v>
+        <v>54.47528284844319</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150.4640074762883</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>182.8825958313587</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164519647</v>
+        <v>1.776449164537667</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>126.5716803296979</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>199.0580454966675</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>4.111025083571365e-12</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29811,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -30203,7 +30203,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>4.111025083571365e-12</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885566</v>
+        <v>3.753577726885551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546681</v>
+        <v>38.44132789546666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157559</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972541</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763202</v>
+        <v>477.4691627763182</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354945</v>
+        <v>592.3427171354921</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359956</v>
+        <v>659.0954050359929</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525092</v>
+        <v>669.7602577525065</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307908</v>
+        <v>632.4356192307883</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983033</v>
+        <v>539.7691690983012</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542139</v>
+        <v>405.3441667542123</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864756</v>
+        <v>235.7856768864747</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140491</v>
+        <v>85.53465245140457</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944157</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508452</v>
+        <v>0.300286218150844</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436934</v>
+        <v>2.008341139436926</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035145</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026287</v>
+        <v>69.1468330902626</v>
       </c>
       <c r="J9" t="n">
-        <v>189.744195107943</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502176</v>
+        <v>324.3030514502163</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571291</v>
+        <v>436.0654741571274</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617178</v>
+        <v>508.8678404617158</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152226</v>
+        <v>522.3360580152206</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519095</v>
+        <v>477.8354464519076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947599</v>
+        <v>383.5050724947583</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463708</v>
+        <v>256.3629847463698</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204792</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366409</v>
+        <v>37.30405581366393</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133956</v>
+        <v>8.095024154133922</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419036</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752563</v>
+        <v>1.683725746752556</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840007</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415891</v>
+        <v>50.63422518415872</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954062</v>
+        <v>119.0394102954057</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772523</v>
+        <v>195.6183185772515</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749013</v>
+        <v>250.3240987490119</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023131</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462356</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.986981004626</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708736</v>
+        <v>203.6389757708727</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939806</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307432</v>
+        <v>75.70643221307402</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658784</v>
+        <v>29.34274778658773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942769</v>
+        <v>7.194100917942739</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650355</v>
+        <v>0.09183958618650319</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,40 +33022,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>537.6437863443698</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33976,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>416.7024900153332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127118</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763038</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659561</v>
+        <v>245.5483596572286</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043482</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35032,7 +35032,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705678</v>
+        <v>137.5343130705665</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313396</v>
+        <v>257.3793117313377</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655072</v>
+        <v>356.5763021655048</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087228</v>
+        <v>428.7491718087202</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559183</v>
+        <v>440.3471941559156</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091041</v>
+        <v>402.3374078091016</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430338</v>
+        <v>308.5361733430316</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797644</v>
+        <v>183.0384768797628</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234349</v>
+        <v>20.20013907234255</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816851</v>
+        <v>62.90656844127557</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884372</v>
+        <v>186.4616124758573</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772549</v>
+        <v>507.9883102593888</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396995</v>
+        <v>366.7338065396975</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318894</v>
+        <v>390.9943459318873</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074651</v>
+        <v>335.2392020074631</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804296</v>
+        <v>567.9934337203653</v>
       </c>
       <c r="Q9" t="n">
-        <v>230.2294360616042</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783605</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873344</v>
+        <v>25.68023017873296</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513694</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093291</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641537</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254643</v>
+        <v>301.7881314254631</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186657</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357671</v>
+        <v>200.9175350357662</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228618</v>
+        <v>54.82702814228561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>432.0572943778175</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>508.510055302383</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37007,7 +37007,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306629</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>395.0475418999253</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>285.3607779319999</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1942685.085764588</v>
+        <v>1944445.616067373</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
-        <v>259.6326967715747</v>
+        <v>212.568965117905</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>107.3880719186414</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>134.5404641870286</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>23.11019829592084</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>160.1623451421132</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.5689651179051</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>212.568965117905</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -977,22 +977,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>28.33708868093422</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>175.5844527629984</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>232.0477154881478</v>
+        <v>228.5187739913521</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>52.19109215303373</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>118.1508783889418</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8390969161451</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115247</v>
+        <v>20.24979976115236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>132.6026661256442</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052098953</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1296,16 +1296,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>21.69344301367131</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>170.5614640466865</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>113.954991851706</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>72.26558381699965</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>95.2538199663615</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>70.58974991479215</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>1.839588425939337</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>60.64713141731568</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>138.1441996497202</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717412</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>170.9457618790573</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238239</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>174.7683347992642</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>145.7322552292192</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>419.733006062639</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="C2" t="n">
-        <v>157.4777567984221</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D2" t="n">
-        <v>157.4777567984221</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>686.1106626298169</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y2" t="n">
-        <v>686.1106626298169</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>750.7407242111802</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>576.2876949300532</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>427.3532852688019</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1158302633464</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4442,19 +4442,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>826.7196740428383</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>591.5675658110956</v>
       </c>
       <c r="W3" t="n">
-        <v>1054.855520006025</v>
+        <v>337.330209082894</v>
       </c>
       <c r="X3" t="n">
-        <v>1054.855520006025</v>
+        <v>337.330209082894</v>
       </c>
       <c r="Y3" t="n">
-        <v>918.9560612312482</v>
+        <v>129.5699103179401</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.3908851919425</v>
+        <v>826.8659691080074</v>
       </c>
       <c r="C4" t="n">
-        <v>638.3908851919425</v>
+        <v>657.9297861801006</v>
       </c>
       <c r="D4" t="n">
-        <v>638.3908851919425</v>
+        <v>507.8131467677648</v>
       </c>
       <c r="E4" t="n">
-        <v>490.4777916095494</v>
+        <v>359.9000531853717</v>
       </c>
       <c r="F4" t="n">
-        <v>343.5878441116391</v>
+        <v>213.0101056874613</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>44.44074504246478</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075543</v>
@@ -4521,19 +4521,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>893.0753733978294</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>638.3908851919425</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>638.3908851919425</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>638.3908851919425</v>
+        <v>826.8659691080074</v>
       </c>
       <c r="Y4" t="n">
-        <v>638.3908851919425</v>
+        <v>826.8659691080074</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>840.1393936243022</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>573.7617370571243</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4558,31 +4558,31 @@
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4612,7 +4612,7 @@
         <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>678.8798842210028</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>504.4268549398759</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>355.4924452786246</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>196.2549902731691</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>49.72043230005406</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>49.72043230005406</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>859.1616031188769</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>604.9242463906753</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X6" t="n">
-        <v>397.0727461851425</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y6" t="n">
-        <v>189.3124474201885</v>
+        <v>847.0952212410709</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.0332933280274</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="W7" t="n">
-        <v>820.4638881998146</v>
+        <v>569.3439873644287</v>
       </c>
       <c r="X7" t="n">
-        <v>592.4743373017973</v>
+        <v>341.3544364664114</v>
       </c>
       <c r="Y7" t="n">
-        <v>371.6817581582671</v>
+        <v>341.3544364664114</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1751.998473148444</v>
+        <v>916.1994525092148</v>
       </c>
       <c r="C8" t="n">
-        <v>1383.035956208032</v>
+        <v>547.2369355688031</v>
       </c>
       <c r="D8" t="n">
-        <v>1383.035956208032</v>
+        <v>188.9712369620526</v>
       </c>
       <c r="E8" t="n">
-        <v>997.2477036097875</v>
+        <v>136.2529620599983</v>
       </c>
       <c r="F8" t="n">
-        <v>586.26179882018</v>
+        <v>129.3074613107949</v>
       </c>
       <c r="G8" t="n">
-        <v>170.5555768118472</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685551</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685551</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467164</v>
+        <v>187.3702251467171</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607407</v>
+        <v>442.1757437607423</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045904</v>
+        <v>795.1862829045926</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995223</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209579</v>
+        <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.90571894059</v>
+        <v>2053.905718940596</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550192</v>
+        <v>2359.356530550198</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661157</v>
+        <v>2540.564622661164</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342776</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762128</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762128</v>
+        <v>2227.07793185841</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762128</v>
+        <v>1973.496753383979</v>
       </c>
       <c r="V8" t="n">
-        <v>2104.767128418558</v>
+        <v>1642.433866040409</v>
       </c>
       <c r="W8" t="n">
-        <v>1751.998473148444</v>
+        <v>1289.665210770295</v>
       </c>
       <c r="X8" t="n">
-        <v>1751.998473148444</v>
+        <v>916.1994525092148</v>
       </c>
       <c r="Y8" t="n">
-        <v>1751.998473148444</v>
+        <v>916.1994525092148</v>
       </c>
     </row>
     <row r="9">
@@ -4877,43 +4877,43 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993882</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685551</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637183</v>
+        <v>113.4887579637188</v>
       </c>
       <c r="K9" t="n">
-        <v>298.085754314817</v>
+        <v>298.0857543148181</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9941814716119</v>
+        <v>592.6217377482996</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.060649945912</v>
+        <v>1208.393778287028</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.145052418481</v>
+        <v>1842.133061471867</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405869</v>
+        <v>2174.019871459257</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789031</v>
+        <v>2421.055229888881</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342776</v>
+        <v>2536.272628442626</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342776</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251691</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.81647768534</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.0605317171555</v>
+        <v>833.054243487711</v>
       </c>
       <c r="C10" t="n">
-        <v>199.1243487892486</v>
+        <v>664.1180605598041</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1243487892486</v>
+        <v>514.0014211474684</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685551</v>
+        <v>366.0883275650753</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685551</v>
+        <v>219.1983800671649</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685551</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685551</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685551</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380114</v>
+        <v>76.63468308380152</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676561</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368909</v>
+        <v>523.3850043368921</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990402</v>
+        <v>823.8653899904036</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616497</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412617</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634451</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="T10" t="n">
-        <v>1314.603233933773</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="U10" t="n">
-        <v>1314.603233933773</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.918745727886</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="W10" t="n">
-        <v>770.5015756909254</v>
+        <v>1463.484838359498</v>
       </c>
       <c r="X10" t="n">
-        <v>770.5015756909254</v>
+        <v>1235.495287461481</v>
       </c>
       <c r="Y10" t="n">
-        <v>549.7089965473953</v>
+        <v>1014.702708317951</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,25 +5053,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2106.003314093041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5983,7 +5983,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192616</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2125.759767795858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1836.684541140056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6211,34 +6211,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,7 +6302,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797186</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6463,19 +6463,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327688</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048619</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925262</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101331</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>296.7882229101331</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580265</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603206</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947404</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741517</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704556</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806539</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630086</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="32">
@@ -6694,28 +6694,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,22 +6727,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>2160.315914855604</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1905.631426649722</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2232.71308162133</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1943.637854965528</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.953366759641</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1399.536196722681</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1171.546645824663</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8151,13 +8151,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658823</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775129</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8537,25 +8537,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>210.4772158821356</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.2581536004316</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538077</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348528</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>111.7546635373311</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>213.9188905722445</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>191.2691783702295</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>6.257951202384504</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>146.8157004124961</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631857025</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>104.8770068749532</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>80.44045370237458</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>46.45968844823099</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>111.7546635373268</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>71.67319509806902</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.9210447283</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>858482.9210447284</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>858482.9210447284</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049985</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="K2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580772</v>
+        <v>390680.0076580792</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606952</v>
+        <v>507909.232060693</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911384</v>
+        <v>68999.15441911395</v>
       </c>
       <c r="K3" t="n">
-        <v>1.93688015511286e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101712</v>
+        <v>95270.23779101775</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954696</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447215</v>
+        <v>141668.850744721</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26444,13 +26444,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567881</v>
+        <v>92902.86757567899</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-420528.6101536379</v>
+        <v>-420528.6101536385</v>
       </c>
       <c r="C6" t="n">
-        <v>259559.3704375548</v>
+        <v>259559.3704375552</v>
       </c>
       <c r="D6" t="n">
-        <v>-50522.48707347889</v>
+        <v>-50522.48707348086</v>
       </c>
       <c r="E6" t="n">
-        <v>-56153.49757276078</v>
+        <v>-55840.8562438372</v>
       </c>
       <c r="F6" t="n">
-        <v>451755.7344879343</v>
+        <v>452068.3758168557</v>
       </c>
       <c r="G6" t="n">
-        <v>451755.7344879347</v>
+        <v>452068.3758168555</v>
       </c>
       <c r="H6" t="n">
-        <v>451755.7344879347</v>
+        <v>452068.375816856</v>
       </c>
       <c r="I6" t="n">
-        <v>451755.7344879344</v>
+        <v>452068.3758168557</v>
       </c>
       <c r="J6" t="n">
-        <v>382756.5800688206</v>
+        <v>383069.2213977419</v>
       </c>
       <c r="K6" t="n">
-        <v>451755.7344879346</v>
+        <v>452068.3758168557</v>
       </c>
       <c r="L6" t="n">
-        <v>356485.4966969175</v>
+        <v>356798.138025838</v>
       </c>
       <c r="M6" t="n">
-        <v>319037.7587924652</v>
+        <v>319350.400121387</v>
       </c>
       <c r="N6" t="n">
-        <v>451755.7344879343</v>
+        <v>452068.3758168557</v>
       </c>
       <c r="O6" t="n">
-        <v>451755.7344879344</v>
+        <v>452068.3758168557</v>
       </c>
       <c r="P6" t="n">
-        <v>451755.7344879344</v>
+        <v>452068.3758168556</v>
       </c>
     </row>
   </sheetData>
@@ -26712,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627814</v>
+        <v>933.7024595627831</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856939</v>
+        <v>640.140690085696</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933032</v>
+        <v>319.6474457933048</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788926</v>
+        <v>434.2730407788906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841878</v>
+        <v>376.4268100841898</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139547</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015057</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841876</v>
+        <v>376.42681008419</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139547</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841878</v>
+        <v>376.4268100841898</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139547</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>105.6401949994328</v>
+        <v>152.7039266531025</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>59.14511173122597</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27514,19 +27514,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>71.14223159027577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>129.2719610399359</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>126.0962853605643</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.1648765455755</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>169.3614049543568</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>71.14223159027551</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>57.21613438642683</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>54.47528284844319</v>
+        <v>58.00422434523887</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>329.7392779192281</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>182.8825958313587</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164529595</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164537667</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>199.0580454966675</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.9615342899045</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29453,7 +29453,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-3.338582991154557e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>4.111025083571365e-12</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -29811,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -30203,7 +30203,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>4.111025083571365e-12</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885551</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546666</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972528</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763182</v>
+        <v>477.4691627763191</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354921</v>
+        <v>592.3427171354931</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359929</v>
+        <v>659.0954050359941</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525065</v>
+        <v>669.7602577525078</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307883</v>
+        <v>632.4356192307895</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983012</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542123</v>
+        <v>405.344166754213</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864747</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140457</v>
+        <v>85.53465245140472</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.300286218150844</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436926</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902626</v>
+        <v>69.14683309026272</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502163</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571274</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617158</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152206</v>
+        <v>522.3360580152215</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519076</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947583</v>
+        <v>383.505072494759</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463698</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366393</v>
+        <v>37.304055813664</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133922</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752556</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415872</v>
+        <v>50.63422518415881</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954057</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772515</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490119</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462346</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046251</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708727</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307402</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658773</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942739</v>
+        <v>7.194100917942753</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650319</v>
+        <v>0.09183958618650336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,10 +32311,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34871,13 +34871,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958076</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496654</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705665</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313377</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655048</v>
+        <v>356.5763021655059</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087202</v>
+        <v>428.7491718087214</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559156</v>
+        <v>440.3471941559168</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091016</v>
+        <v>402.3374078091027</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430316</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797628</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234255</v>
+        <v>20.20013907234298</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127557</v>
+        <v>62.90656844127591</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758573</v>
+        <v>186.4616124758579</v>
       </c>
       <c r="L9" t="n">
-        <v>507.9883102593888</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396975</v>
+        <v>621.99196014013</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318873</v>
+        <v>640.140690085696</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074631</v>
+        <v>335.239202007464</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203653</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603482</v>
+        <v>116.3812106603487</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873296</v>
+        <v>25.68023017873318</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254631</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186648</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357662</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228561</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37007,7 +37007,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306629</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
